--- a/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1963AA20-5190-47E8-A6D6-D49EA6AF8CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B0A87-F31F-DD4B-91B7-75A7782A86FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -550,17 +561,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -590,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -599,7 +610,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -608,21 +619,21 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -648,28 +659,25 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6">
-        <f>'スプリントバックログ (第1スプリント)'!C3</f>
-        <v>0</v>
-      </c>
+      <c r="B1" s="6"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -683,61 +691,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -754,29 +762,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6">
-        <f>'スプリントバックログ (第1スプリント)'!C4</f>
-        <v>0</v>
-      </c>
+      <c r="B1" s="6"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -790,61 +795,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B0A87-F31F-DD4B-91B7-75A7782A86FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B842CF5-7E06-4DED-8AF7-1DED6FBC1E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -82,13 +82,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名：</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -152,6 +145,188 @@
     </rPh>
     <rPh sb="65" eb="67">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム、検索、新規投稿、DM、プロフィールに遷移</t>
+  </si>
+  <si>
+    <t>投稿表示</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後に出る投稿の一覧表示。投稿の新しい順に出る。</t>
+  </si>
+  <si>
+    <t>アイコン作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンのイラストを描く</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤原</t>
+    <rPh sb="0" eb="2">
+      <t>フジワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面下部のメニュー（ホーム、検索、新規投稿、DM、プロフィール）の作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シンキトウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：投稿表示</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>トウコウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿が表示されるフロント部分の作成</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿が表示されるバック部分の作成</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図作成後、DB環境を設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの環境設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山根</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中井</t>
+    <rPh sb="0" eb="2">
+      <t>ナカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2週間</t>
+    <rPh sb="0" eb="3">
+      <t>ニシュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -561,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -580,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="10"/>
     </row>
@@ -605,18 +780,30 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -659,10 +846,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
@@ -672,36 +859,52 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="40" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="40" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="8"/>
@@ -763,10 +966,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
@@ -776,42 +979,66 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="40" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="40" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="40" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="8"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B842CF5-7E06-4DED-8AF7-1DED6FBC1E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE25A7A-946A-477E-9DAB-FD3B13737AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -327,6 +327,20 @@
     <t>20日</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況
+[実施・完了]</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -740,13 +754,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -776,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -791,7 +805,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -806,21 +820,21 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -843,28 +857,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -877,8 +893,11 @@
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -891,8 +910,9 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -905,54 +925,63 @@
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -963,28 +992,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -997,8 +1028,11 @@
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -1011,8 +1045,9 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1025,8 +1060,9 @@
       <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1039,48 +1075,56 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE25A7A-946A-477E-9DAB-FD3B13737AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B1D27-9EE3-4FC6-A27B-148A553CB7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -340,6 +340,13 @@
       <t>ジッシ</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -750,17 +757,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -790,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -805,7 +812,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -820,21 +827,21 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -859,28 +866,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -897,7 +904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -912,7 +919,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -925,58 +932,60 @@
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -994,28 +1003,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -1047,7 +1056,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1071,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1077,49 +1086,49 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B1D27-9EE3-4FC6-A27B-148A553CB7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7B7A2-64A1-F74C-82BD-9B3E11AC11C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -348,6 +348,20 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="1">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッシ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -761,13 +775,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.08203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -867,16 +881,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -917,7 +931,9 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -1004,16 +1020,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1054,7 +1070,9 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -1069,7 +1087,9 @@
       <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -1084,7 +1104,9 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7B7A2-64A1-F74C-82BD-9B3E11AC11C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D019855-0389-4F50-9C5C-134754096425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -362,6 +362,26 @@
     <t>実施</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ジッシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2０日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿できるようにする　（投稿表示するために作らないといけないから）</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>トウコウヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -771,11 +791,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
@@ -880,11 +900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1019,11 +1039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1096,7 +1116,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>35</v>
@@ -1109,11 +1129,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D019855-0389-4F50-9C5C-134754096425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C8717-3EE7-C54F-859E-DB4C6A6ECA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -324,13 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>状況
 [実施・完了]</t>
     <rPh sb="0" eb="2">
@@ -359,29 +352,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジッシ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2０日</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿できるようにする　（投稿表示するために作らないといけないから）</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>トウコウヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -791,11 +764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
@@ -900,11 +873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -935,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
@@ -952,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -969,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -1040,10 +1013,10 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1074,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
@@ -1091,7 +1064,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1108,7 +1081,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -1116,34 +1089,24 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
